--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\IEEE\AutomateWhatsapp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="6195"/>
+    <workbookView windowWidth="28000" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>Name</t>
   </si>
@@ -32,31 +22,419 @@
     <t>Contact Number</t>
   </si>
   <si>
+    <t>Reg Number</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>Test msg</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Another test msg</t>
+  </si>
+  <si>
+    <t>DSFS</t>
+  </si>
+  <si>
+    <t>Are you an ever-optimistic person who believes we can make the world a more sustainable place? Are you passionate about the field of computer science and engineering? Are you already using computer science to develop solutions for some challenges, or opportunities, that you see around you?</t>
+  </si>
+  <si>
+    <t>SDF</t>
+  </si>
+  <si>
+    <t>The selection will be full and final, and the applicants will confirm they will not dispute the same at any point of time.</t>
+  </si>
+  <si>
+    <t>VCX</t>
+  </si>
+  <si>
+    <t>We are spoiled for choices with the extensive range of footwear available online and remember to refer to the sizing chart carefully before you pick your pair. Your look is only complete when you’ve dressed right, from shirt down to the footwear. Go on, find your fit at Myntra today!</t>
+  </si>
+  <si>
+    <t>TRTY</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>GFD</t>
+  </si>
+  <si>
+    <t>another Another test msg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -64,24 +442,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -130,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,7 +829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,47 +1003,155 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1234567890</v>
       </c>
+      <c r="C2">
+        <v>65496</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1234567891</v>
+      </c>
+      <c r="C3">
+        <v>65497</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1234567892</v>
+      </c>
+      <c r="C4">
+        <v>65498</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1234567893</v>
+      </c>
+      <c r="C5">
+        <v>65499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1234567894</v>
+      </c>
+      <c r="C6">
+        <v>65500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1234567895</v>
+      </c>
+      <c r="C7">
+        <v>65501</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1234567896</v>
+      </c>
+      <c r="C8">
+        <v>65502</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1234567897</v>
+      </c>
+      <c r="C9">
+        <v>65503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>